--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Games-Technology-Research-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CEE856-EDFA-44DA-825C-7FEBDFA0C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB5172-4B2E-4A6B-A837-07BDDD6B3C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Task Name</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Duration (days)</t>
-  </si>
-  <si>
-    <t>Task 14</t>
   </si>
   <si>
     <t>Q</t>
@@ -303,6 +300,15 @@
   <si>
     <t>Project Proposal</t>
   </si>
+  <si>
+    <t>Prototype - Setup Project</t>
+  </si>
+  <si>
+    <t>Prototype - Basic Ray Marching</t>
+  </si>
+  <si>
+    <t>Project Plan</t>
+  </si>
 </sst>
 </file>
 
@@ -404,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -448,21 +454,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -573,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -588,8 +579,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,13 +588,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,10 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,8 +613,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,9 +755,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$B$5:$B$19</c:f>
+              <c:f>'Basic Gantt Chart'!$B$5:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -813,17 +801,23 @@
                   <c:v>Platform Conclusion</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Task 14</c:v>
+                  <c:v>Prototype - Setup Project</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Prototype - Basic Ray Marching</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$C$5:$C$19</c:f>
+              <c:f>'Basic Gantt Chart'!$C$5:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44479</c:v>
                 </c:pt>
@@ -867,7 +861,16 @@
                   <c:v>44508</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44502</c:v>
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,29 +892,7 @@
               <a:srgbClr val="F47B20"/>
             </a:solidFill>
             <a:ln w="12700">
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="40000"/>
-                      <a:lumOff val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="46000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="0" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:softEdge rad="0"/>
@@ -937,29 +918,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -980,29 +939,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1023,29 +960,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1066,29 +981,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1109,29 +1002,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1152,29 +1023,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1195,29 +1044,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1238,29 +1065,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1281,29 +1086,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1324,29 +1107,7 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
@@ -1367,40 +1128,23 @@
                 <a:srgbClr val="F47B20"/>
               </a:solidFill>
               <a:ln w="12700">
-                <a:gradFill flip="none" rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="40000"/>
-                        <a:lumOff val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="46000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="0" scaled="1"/>
-                  <a:tileRect/>
-                </a:gradFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:softEdge rad="0"/>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-5002-411F-BCD6-D25043B90725}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$B$5:$B$19</c:f>
+              <c:f>'Basic Gantt Chart'!$B$5:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -1444,17 +1188,23 @@
                   <c:v>Platform Conclusion</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Task 14</c:v>
+                  <c:v>Prototype - Setup Project</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Prototype - Basic Ray Marching</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$E$5:$E$19</c:f>
+              <c:f>'Basic Gantt Chart'!$E$5:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1498,6 +1248,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2235,7 +1997,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2654,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,11 +2464,11 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2746,16 +2508,16 @@
     </row>
     <row r="4" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2"/>
@@ -2779,16 +2541,16 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11">
         <v>44479</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>44484</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f t="shared" ref="E5:E17" si="0">D5-C5</f>
         <v>5</v>
       </c>
@@ -2813,16 +2575,16 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11">
         <v>44484</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>44485</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
@@ -2846,13 +2608,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
         <v>44484</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>44487</v>
       </c>
       <c r="E7" s="6">
@@ -2880,13 +2642,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11">
         <v>44487</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>44494</v>
       </c>
       <c r="E8" s="6">
@@ -2914,13 +2676,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
         <v>44488</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>44489</v>
       </c>
       <c r="E9" s="6">
@@ -2948,13 +2710,13 @@
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11">
         <v>44488</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>44490</v>
       </c>
       <c r="E10" s="7">
@@ -2982,13 +2744,13 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11">
         <v>44491</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>44495</v>
       </c>
       <c r="E11" s="7">
@@ -3016,13 +2778,13 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11">
         <v>44495</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>44498</v>
       </c>
       <c r="E12" s="7">
@@ -3050,13 +2812,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11">
         <v>44498</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>44501</v>
       </c>
       <c r="E13" s="7">
@@ -3084,13 +2846,13 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11">
         <v>44501</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>44502</v>
       </c>
       <c r="E14" s="7">
@@ -3118,13 +2880,13 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
         <v>44502</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>44505</v>
       </c>
       <c r="E15" s="7">
@@ -3152,13 +2914,13 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11">
         <v>44505</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>44506</v>
       </c>
       <c r="E16" s="7">
@@ -3186,13 +2948,13 @@
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11">
         <v>44505</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>44508</v>
       </c>
       <c r="E17" s="7">
@@ -3220,17 +2982,17 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11">
         <v>44508</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>44509</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:E19" si="1">D18-C18</f>
+        <f t="shared" ref="E18:E23" si="1">D18-C18</f>
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
@@ -3254,18 +3016,18 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="12">
-        <v>44502</v>
-      </c>
-      <c r="D19" s="12">
-        <v>44502</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="B19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D19" s="11">
+        <v>44512</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3286,12 +3048,21 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D20" s="11">
+        <v>44512</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3311,12 +3082,21 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="11">
+        <v>44512</v>
+      </c>
+      <c r="D21" s="11">
+        <v>44519</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3336,12 +3116,15 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3361,12 +3144,19 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D23" s="11">
+        <v>44510</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3387,104 +3177,104 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -3560,6 +3350,106 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3590,35 +3480,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Games-Technology-Research-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB5172-4B2E-4A6B-A837-07BDDD6B3C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C384057F-3C48-4AA8-ADC1-7A1667BF7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Task Name</t>
   </si>
@@ -307,7 +307,13 @@
     <t>Prototype - Basic Ray Marching</t>
   </si>
   <si>
-    <t>Project Plan</t>
+    <t>Ray Marching Implementation (Report)</t>
+  </si>
+  <si>
+    <t>Setup Implementation (Report)</t>
+  </si>
+  <si>
+    <t>Full Project Plan</t>
   </si>
 </sst>
 </file>
@@ -755,9 +761,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$B$5:$B$23</c:f>
+              <c:f>'Basic Gantt Chart'!$B$5:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -804,20 +810,26 @@
                   <c:v>Prototype - Setup Project</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Setup Implementation (Report)</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Prototype - Basic Ray Marching</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ray Marching Implementation (Report)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Full Project Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$C$5:$C$23</c:f>
+              <c:f>'Basic Gantt Chart'!$C$5:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44479</c:v>
                 </c:pt>
@@ -864,12 +876,18 @@
                   <c:v>44510</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44510</c:v>
+                  <c:v>44512</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44512</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44522</c:v>
+                </c:pt>
                 <c:pt idx="18">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>44510</c:v>
                 </c:pt>
               </c:numCache>
@@ -1142,9 +1160,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$B$5:$B$23</c:f>
+              <c:f>'Basic Gantt Chart'!$B$5:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -1191,20 +1209,26 @@
                   <c:v>Prototype - Setup Project</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Setup Implementation (Report)</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Prototype - Basic Ray Marching</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ray Marching Implementation (Report)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Full Project Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$E$5:$E$23</c:f>
+              <c:f>'Basic Gantt Chart'!$E$5:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1251,15 +1275,18 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1997,7 +2024,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2416,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,7 +3019,7 @@
         <v>44509</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:E23" si="1">D18-C18</f>
+        <f t="shared" ref="E18:E24" si="1">D18-C18</f>
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
@@ -3051,17 +3078,17 @@
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="11">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D20" s="11">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3091,11 +3118,11 @@
         <v>44512</v>
       </c>
       <c r="D21" s="11">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" ref="E21" si="2">D21-C21</f>
+        <v>10</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3118,12 +3145,18 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44522</v>
+      </c>
+      <c r="D22" s="11">
+        <v>44529</v>
+      </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3146,16 +3179,18 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="11">
-        <v>44510</v>
+        <v>44529</v>
       </c>
       <c r="D23" s="11">
-        <v>44510</v>
+        <v>44535</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3176,12 +3211,19 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D24" s="11">
+        <v>44510</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3228,10 +3270,10 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3252,7 +3294,7 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3278,28 +3320,28 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -3450,6 +3492,31 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Games-Technology-Research-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C384057F-3C48-4AA8-ADC1-7A1667BF7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64BD82C-0819-46CF-A13E-4C89D97B2381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Task Name</t>
   </si>
@@ -314,6 +314,30 @@
   </si>
   <si>
     <t>Full Project Plan</t>
+  </si>
+  <si>
+    <t>Lit. Review - Volumetric Objects</t>
+  </si>
+  <si>
+    <t>Lit. Review - Fractal Rendering</t>
+  </si>
+  <si>
+    <t>Lit. Review - Lighting/Shadows</t>
+  </si>
+  <si>
+    <t>Ray Marcher Analysis and Design</t>
+  </si>
+  <si>
+    <t>Lighting Analysis and Design</t>
+  </si>
+  <si>
+    <t>CSG Analysis and Design</t>
+  </si>
+  <si>
+    <t>Lit. Review - CSG/Boolean Operations</t>
+  </si>
+  <si>
+    <t>Begin Lighting/Shadows Implementation</t>
   </si>
 </sst>
 </file>
@@ -761,9 +785,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$B$5:$B$24</c:f>
+              <c:f>'Basic Gantt Chart'!$B$5:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -820,16 +844,40 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Full Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Lit. Review - CSG/Boolean Operations</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Lit. Review - Volumetric Objects</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Lit. Review - Lighting/Shadows</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Lit. Review - Fractal Rendering</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ray Marcher Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Lighting Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>CSG Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Begin Lighting/Shadows Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$C$5:$C$24</c:f>
+              <c:f>'Basic Gantt Chart'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44479</c:v>
                 </c:pt>
@@ -864,10 +912,10 @@
                   <c:v>44502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44505</c:v>
+                  <c:v>44504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44505</c:v>
+                  <c:v>44506</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44508</c:v>
@@ -888,7 +936,28 @@
                   <c:v>44529</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44510</c:v>
+                  <c:v>44535</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44541</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44544</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,9 +1229,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$B$5:$B$24</c:f>
+              <c:f>'Basic Gantt Chart'!$B$5:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -1219,16 +1288,40 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Full Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Lit. Review - CSG/Boolean Operations</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Lit. Review - Volumetric Objects</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Lit. Review - Lighting/Shadows</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Lit. Review - Fractal Rendering</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ray Marcher Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Lighting Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>CSG Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Begin Lighting/Shadows Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$E$5:$E$24</c:f>
+              <c:f>'Basic Gantt Chart'!$E$5:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1260,16 +1353,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
@@ -1278,7 +1371,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
@@ -1287,7 +1380,28 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,7 +2138,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2443,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,11 +3028,11 @@
         <v>44502</v>
       </c>
       <c r="D15" s="11">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2945,14 +3059,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="11">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="D16" s="11">
         <v>44506</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2979,14 +3093,14 @@
         <v>20</v>
       </c>
       <c r="C17" s="11">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D17" s="11">
         <v>44508</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3016,11 +3130,11 @@
         <v>44508</v>
       </c>
       <c r="D18" s="11">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:E24" si="1">D18-C18</f>
-        <v>1</v>
+        <f t="shared" ref="E18:E31" si="1">D18-C18</f>
+        <v>2</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3118,11 +3232,11 @@
         <v>44512</v>
       </c>
       <c r="D21" s="11">
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" ref="E21" si="2">D21-C21</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3213,16 +3327,18 @@
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="C24" s="11">
-        <v>44510</v>
+        <v>44535</v>
       </c>
       <c r="D24" s="11">
-        <v>44510</v>
+        <v>44538</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3243,12 +3359,21 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="11">
+        <v>44538</v>
+      </c>
+      <c r="D25" s="11">
+        <v>44541</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" ref="E25:E30" si="3">D25-C25</f>
+        <v>3</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3268,12 +3393,21 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44541</v>
+      </c>
+      <c r="D26" s="11">
+        <v>44544</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3293,12 +3427,21 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11">
+        <v>44544</v>
+      </c>
+      <c r="D27" s="11">
+        <v>44547</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3318,12 +3461,21 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="11">
+        <v>44547</v>
+      </c>
+      <c r="D28" s="11">
+        <v>44551</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3343,180 +3495,382 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="11">
+        <v>44557</v>
+      </c>
+      <c r="D29" s="11">
+        <v>44561</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="11">
+        <v>44562</v>
+      </c>
+      <c r="D30" s="11">
+        <v>44566</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11">
+        <v>44566</v>
+      </c>
+      <c r="D31" s="11">
+        <v>44571</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Games-Technology-Research-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64BD82C-0819-46CF-A13E-4C89D97B2381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F26B7-E780-4637-8FCF-CF7510CF1144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Gantt Chart" sheetId="1" r:id="rId1"/>
-    <sheet name="FAQs" sheetId="2" r:id="rId2"/>
+    <sheet name="Basic Gantt Chart (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="FAQs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Task Name</t>
   </si>
@@ -338,6 +339,45 @@
   </si>
   <si>
     <t>Begin Lighting/Shadows Implementation</t>
+  </si>
+  <si>
+    <t>Lighting/Shadows Implementation</t>
+  </si>
+  <si>
+    <t>Object Materials Analysis and Design</t>
+  </si>
+  <si>
+    <t>Object Materials Implementation</t>
+  </si>
+  <si>
+    <t>CSG Implementation</t>
+  </si>
+  <si>
+    <t>SDF Modelling Tool Analysis and Design</t>
+  </si>
+  <si>
+    <t>SDF Modelling Tool Implementation</t>
+  </si>
+  <si>
+    <t>Point-Splat Rendering Analysis and Design</t>
+  </si>
+  <si>
+    <t>Point-Splat Rendering Implementation</t>
+  </si>
+  <si>
+    <t>Fractals Analysis and Design</t>
+  </si>
+  <si>
+    <t>Fractals Implementation</t>
+  </si>
+  <si>
+    <t>Scene Management Analysis and Design</t>
+  </si>
+  <si>
+    <t>Testing / Results</t>
+  </si>
+  <si>
+    <t>Critical Evaluation</t>
   </si>
 </sst>
 </file>
@@ -653,7 +693,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1581,6 +1631,758 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Semester 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Basic Gantt Chart (2)'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Basic Gantt Chart (2)'!$B$5:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Lighting/Shadows Implementation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Object Materials Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Object Materials Implementation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSG Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSG Implementation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SDF Modelling Tool Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SDF Modelling Tool Implementation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Point-Splat Rendering Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Point-Splat Rendering Implementation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Fractals Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fractals Implementation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scene Management Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Scene Management Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing / Results</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Critical Evaluation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Gantt Chart (2)'!$C$5:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44647</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Duration</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F47B20"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F47B20"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Basic Gantt Chart (2)'!$B$5:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Lighting/Shadows Implementation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Object Materials Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Object Materials Implementation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSG Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSG Implementation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SDF Modelling Tool Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SDF Modelling Tool Implementation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Point-Splat Rendering Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Point-Splat Rendering Implementation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Fractals Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fractals Implementation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scene Management Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Scene Management Analysis and Design</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing / Results</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Critical Evaluation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Gantt Chart (2)'!$E$5:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-80B7-4B6F-AA43-9A412DA2BBF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="181382184"/>
+        <c:axId val="181382568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181382184"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181382568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181382568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44686"/>
+          <c:min val="44592"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d/m/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181382184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1621,7 +2423,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2169,6 +3516,49 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E279FC4-9C68-4F72-B6ED-FD5257459F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2559,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,6 +5267,929 @@
     <mergeCell ref="H2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:E4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C331332-2730-4B74-89CA-FD79B8CAADDC}">
+  <dimension ref="A1:W30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11">
+        <v>44592</v>
+      </c>
+      <c r="D5" s="11">
+        <v>44602</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E10" si="0">D5-C5</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11">
+        <v>44602</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44607</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44607</v>
+      </c>
+      <c r="D7" s="11">
+        <v>44617</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44617</v>
+      </c>
+      <c r="D8" s="11">
+        <v>44622</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44622</v>
+      </c>
+      <c r="D9" s="11">
+        <v>44627</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44627</v>
+      </c>
+      <c r="D10" s="11">
+        <v>44632</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44632</v>
+      </c>
+      <c r="D11" s="11">
+        <v>44647</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" ref="E11" si="1">D11-C11</f>
+        <v>15</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44647</v>
+      </c>
+      <c r="D12" s="11">
+        <v>44652</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" ref="E12" si="2">D12-C12</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44652</v>
+      </c>
+      <c r="D13" s="11">
+        <v>44662</v>
+      </c>
+      <c r="E13" s="12">
+        <f>D13-C13</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44662</v>
+      </c>
+      <c r="D14" s="11">
+        <v>44665</v>
+      </c>
+      <c r="E14" s="12">
+        <f>D14-C14</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44665</v>
+      </c>
+      <c r="D15" s="11">
+        <v>44668</v>
+      </c>
+      <c r="E15" s="12">
+        <f>D15-C15</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44668</v>
+      </c>
+      <c r="D16" s="11">
+        <v>44673</v>
+      </c>
+      <c r="E16" s="12">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44673</v>
+      </c>
+      <c r="D17" s="11">
+        <v>44681</v>
+      </c>
+      <c r="E17" s="12">
+        <f>D17-C17</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44681</v>
+      </c>
+      <c r="D18" s="11">
+        <v>44683</v>
+      </c>
+      <c r="E18" s="12">
+        <f>D18-C18</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44683</v>
+      </c>
+      <c r="D19" s="11">
+        <v>44687</v>
+      </c>
+      <c r="E19" s="12">
+        <f>D19-C19</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:E4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3885,7 +6198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C35"/>
   <sheetViews>

--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Games-Technology-Research-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F26B7-E780-4637-8FCF-CF7510CF1144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE8B80-F39C-4F1A-8150-6A8B5E390EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Task Name</t>
   </si>
@@ -353,25 +353,10 @@
     <t>CSG Implementation</t>
   </si>
   <si>
-    <t>SDF Modelling Tool Analysis and Design</t>
-  </si>
-  <si>
-    <t>SDF Modelling Tool Implementation</t>
-  </si>
-  <si>
-    <t>Point-Splat Rendering Analysis and Design</t>
-  </si>
-  <si>
-    <t>Point-Splat Rendering Implementation</t>
-  </si>
-  <si>
     <t>Fractals Analysis and Design</t>
   </si>
   <si>
     <t>Fractals Implementation</t>
-  </si>
-  <si>
-    <t>Scene Management Analysis and Design</t>
   </si>
   <si>
     <t>Testing / Results</t>
@@ -1731,9 +1716,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart (2)'!$B$5:$B$19</c:f>
+              <c:f>'Basic Gantt Chart (2)'!$B$5:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Lighting/Shadows Implementation</c:v>
                 </c:pt>
@@ -1750,33 +1735,15 @@
                   <c:v>CSG Implementation</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SDF Modelling Tool Analysis and Design</c:v>
+                  <c:v>Fractals Analysis and Design</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SDF Modelling Tool Implementation</c:v>
+                  <c:v>Fractals Implementation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Point-Splat Rendering Analysis and Design</c:v>
+                  <c:v>Testing / Results</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Point-Splat Rendering Implementation</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Fractals Analysis and Design</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Fractals Implementation</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Scene Management Analysis and Design</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Scene Management Analysis and Design</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Testing / Results</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>Critical Evaluation</c:v>
                 </c:pt>
               </c:strCache>
@@ -1784,10 +1751,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart (2)'!$C$5:$C$19</c:f>
+              <c:f>'Basic Gantt Chart (2)'!$C$5:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44592</c:v>
                 </c:pt>
@@ -1795,43 +1762,25 @@
                   <c:v>44602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44607</c:v>
+                  <c:v>44612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44617</c:v>
+                  <c:v>44627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44622</c:v>
+                  <c:v>44632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44627</c:v>
+                  <c:v>44642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44632</c:v>
+                  <c:v>44647</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44647</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44662</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44665</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44681</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44683</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,137 +1924,11 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F47B20"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-80B7-4B6F-AA43-9A412DA2BBF1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F47B20"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-80B7-4B6F-AA43-9A412DA2BBF1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F47B20"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-80B7-4B6F-AA43-9A412DA2BBF1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F47B20"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-80B7-4B6F-AA43-9A412DA2BBF1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F47B20"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-80B7-4B6F-AA43-9A412DA2BBF1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F47B20"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-80B7-4B6F-AA43-9A412DA2BBF1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart (2)'!$B$5:$B$19</c:f>
+              <c:f>'Basic Gantt Chart (2)'!$B$5:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Lighting/Shadows Implementation</c:v>
                 </c:pt>
@@ -2122,33 +1945,15 @@
                   <c:v>CSG Implementation</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SDF Modelling Tool Analysis and Design</c:v>
+                  <c:v>Fractals Analysis and Design</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SDF Modelling Tool Implementation</c:v>
+                  <c:v>Fractals Implementation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Point-Splat Rendering Analysis and Design</c:v>
+                  <c:v>Testing / Results</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Point-Splat Rendering Implementation</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Fractals Analysis and Design</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Fractals Implementation</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Scene Management Analysis and Design</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Scene Management Analysis and Design</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Testing / Results</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>Critical Evaluation</c:v>
                 </c:pt>
               </c:strCache>
@@ -2156,54 +1961,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart (2)'!$E$5:$E$19</c:f>
+              <c:f>'Basic Gantt Chart (2)'!$E$5:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,7 +3313,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5277,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C331332-2730-4B74-89CA-FD79B8CAADDC}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5199,7 @@
         <v>44602</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" ref="E5:E10" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E9" si="0">D5-C5</f>
         <v>10</v>
       </c>
       <c r="F5" s="2"/>
@@ -5443,11 +5230,11 @@
         <v>44602</v>
       </c>
       <c r="D6" s="11">
-        <v>44607</v>
+        <v>44612</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>D6-C6</f>
+        <v>10</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5474,14 +5261,14 @@
         <v>39</v>
       </c>
       <c r="C7" s="11">
-        <v>44607</v>
+        <v>44612</v>
       </c>
       <c r="D7" s="11">
-        <v>44617</v>
+        <v>44627</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -5508,10 +5295,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="11">
-        <v>44617</v>
+        <v>44627</v>
       </c>
       <c r="D8" s="11">
-        <v>44622</v>
+        <v>44632</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
@@ -5542,14 +5329,14 @@
         <v>40</v>
       </c>
       <c r="C9" s="11">
-        <v>44622</v>
+        <v>44632</v>
       </c>
       <c r="D9" s="11">
-        <v>44627</v>
+        <v>44642</v>
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5576,13 +5363,13 @@
         <v>41</v>
       </c>
       <c r="C10" s="11">
-        <v>44627</v>
+        <v>44642</v>
       </c>
       <c r="D10" s="11">
-        <v>44632</v>
+        <v>44647</v>
       </c>
       <c r="E10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E10:E13" si="1">D10-C10</f>
         <v>5</v>
       </c>
       <c r="F10" s="2"/>
@@ -5610,14 +5397,14 @@
         <v>42</v>
       </c>
       <c r="C11" s="11">
-        <v>44632</v>
+        <v>44647</v>
       </c>
       <c r="D11" s="11">
-        <v>44647</v>
+        <v>44657</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" ref="E11" si="1">D11-C11</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5644,14 +5431,14 @@
         <v>43</v>
       </c>
       <c r="C12" s="11">
-        <v>44647</v>
+        <v>44657</v>
       </c>
       <c r="D12" s="11">
-        <v>44652</v>
+        <v>44671</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" ref="E12" si="2">D12-C12</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5672,20 +5459,20 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="11">
-        <v>44652</v>
+        <v>44671</v>
       </c>
       <c r="D13" s="11">
-        <v>44662</v>
+        <v>44688</v>
       </c>
       <c r="E13" s="12">
-        <f>D13-C13</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5706,21 +5493,12 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="11">
-        <v>44662</v>
-      </c>
-      <c r="D14" s="11">
-        <v>44665</v>
-      </c>
-      <c r="E14" s="12">
-        <f>D14-C14</f>
-        <v>3</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5740,21 +5518,12 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="11">
-        <v>44665</v>
-      </c>
-      <c r="D15" s="11">
-        <v>44668</v>
-      </c>
-      <c r="E15" s="12">
-        <f>D15-C15</f>
-        <v>3</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5774,21 +5543,12 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="11">
-        <v>44668</v>
-      </c>
-      <c r="D16" s="11">
-        <v>44673</v>
-      </c>
-      <c r="E16" s="12">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5808,21 +5568,12 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="11">
-        <v>44673</v>
-      </c>
-      <c r="D17" s="11">
-        <v>44681</v>
-      </c>
-      <c r="E17" s="12">
-        <f>D17-C17</f>
-        <v>8</v>
-      </c>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5842,173 +5593,155 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="11">
-        <v>44681</v>
-      </c>
-      <c r="D18" s="11">
-        <v>44683</v>
-      </c>
-      <c r="E18" s="12">
-        <f>D18-C18</f>
-        <v>2</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="11">
-        <v>44683</v>
-      </c>
-      <c r="D19" s="11">
-        <v>44687</v>
-      </c>
-      <c r="E19" s="12">
-        <f>D19-C19</f>
-        <v>4</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -6034,156 +5767,6 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
